--- a/FxCurrencyConverter/FxCurrencyConverterTests/TestScenarios.xlsx
+++ b/FxCurrencyConverter/FxCurrencyConverterTests/TestScenarios.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">S.no</t>
   </si>
@@ -38,95 +38,241 @@
     <t xml:space="preserve">Actual Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid currency pair should be given </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> “GBP/USD”,  “AUD/USD”,  “EUR/USD”,  “USD/JPY”, </t>
+    <t xml:space="preserve">When using invalid Currency pair conversion should not succeed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BUY 100 GBP/USA @  </t>
     </r>
     <r>
       <rPr>
         <sz val="9.5"/>
-        <color rgb="FFA31515"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.34126x1.34272
+BUY 100 GBP/
+BUY 100 GBP/GBP
+BUY 100 XXX/YYY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ConvertedResults should be 1(ConversionFailedInvalidCcyPair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).
+ConvertedAmountCurrency should be null.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ConvertedAmount should be null.
+priceUsed(pxUsed) should be null.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When Buying a valid currency, verify that Ask price should be used to calculate the converted amount and currency pair should be same as the currency pair.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+BUY 100 GBP/USD @  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">"AUD/CAD","EUR/CHF","EUR/GBP", "EUR/JPY", "GBP/CAD", "USD/CAD", "USD/CHF"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message invalid currency pair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Buy “True” (Ccy pair:  “GBP/USD”)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pxUsed:1.34272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask price should be used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Buy “True” (Ccy pair:  “GBP/USD”)check side enum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Side: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if Buy side is true,price(pxused) should be ask price and convertedAmount  = pxUsed*amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convertedAmount  = ask price*amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Buy “False”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pxUsed: 1.34126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid price should be used </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Buy “False” check side enum is 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Side: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if Buy side is false,price(pxused) should be Bid price and convertedAmount  = pxUsed*amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convertedAmount  = bid price*amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid price  less than Ask price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount should not be invalid(zero/negative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Invalid number “ message and conversionResults: 1 should be displayed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount should have upper limit of upto 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount should not be less than 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount should not be decimal</t>
+      <t xml:space="preserve">1.34126x1.34272</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify ask price = pxUsed = 1.34272.
+Verify “ccyPair” should be same. ccyPair = GBP/USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Buying a valid currency, verify that Buy is displayed in the response body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUY 100 GBP/USD @  1.34126x1.34273</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify sideEnum is 0. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When Buying a valid currency, converted amount should be correctly calculated and displayed in the response body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUY 100 GBP/USD @  1.34126x1.34274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify convertedAmount  = ask price*amount. 
+ConvertedAmount = 1.34272 *100 = 134.272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Selling a valid currency, verify that Bid price should be used to calculate the converted amount.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUY 100 GBP/USD @  1.34126x1.34275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify Bid price = pxUsed = 1.34126.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Selling a valid currency, verify that Sell is displayed in the response body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUY 100 GBP/USD @  1.34126x1.34276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify sideEnum is 1. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Selling a valid currency, converted amount should be correctly calculated and displayed in the response body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BUY 100 GBP/USD @  1.34126x1.34277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify convertedAmount  = bid price*amount. 
+ConvertedAmount = 1.34126 *100 = 134.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the amount entered is invalid (zero or negative), conversion should not succeed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUY 0 GBP/USD @  1.34126x1.34278
+BUY -10 GBP/USD @  1.34126x1.34278 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ConvertedResults should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">ConversionFailedInvalidCcyAmount).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ConvertedAmountCurrency should be null. 
+ConvertedAmount should be null.
+PriceUsed(pxUsed) should be null.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When the input currency pair is in all lowercase or all uppercase, conversion should be successful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUY 100 GBP/USD @  1.34126x1.34278
+BUY 100 gbp/usd  @  1.34126x1.34278 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify convertedResults should be successful(0).
+Verify pxUsed should be Quoted Currency.
+Verify convertedAmountCurrency should be Quoted Currency and displayed in all uppercase: USD
+Verify ccyPair should be displayed in all uppercase as “GBP/USD”
+Verify convertedAmount should be 134.126</t>
   </si>
   <si>
     <t xml:space="preserve">The common currency pairs should not exist.</t>
@@ -146,11 +292,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,18 +319,33 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,16 +411,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,7 +486,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFA31515"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -338,21 +500,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="49.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="39.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,173 +529,170 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="82" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="87.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-    </row>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -557,7 +715,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="55.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.08"/>
@@ -582,26 +740,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" s="5" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -609,25 +767,25 @@
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/FxCurrencyConverter/FxCurrencyConverterTests/TestScenarios.xlsx
+++ b/FxCurrencyConverter/FxCurrencyConverterTests/TestScenarios.xlsx
@@ -118,6 +118,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.34126x1.34272</t>
     </r>
@@ -135,24 +136,8 @@
 BUY 100 GBP/USD @  1.34126x1.34273</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Verify sideEnum is 0. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
+    <t xml:space="preserve">Verify sideEnum is 0. 
+.</t>
   </si>
   <si>
     <t xml:space="preserve">When Buying a valid currency, converted amount should be correctly calculated and displayed in the response body.</t>
@@ -242,6 +227,7 @@
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ConversionFailedInvalidCcyAmount).
 </t>
@@ -292,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -333,11 +319,7 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -502,11 +484,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="49.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="49.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.71"/>
@@ -715,7 +697,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="55.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.08"/>
